--- a/biology/Botanique/Laelia_(orchidée)/Laelia_(orchidée).xlsx
+++ b/biology/Botanique/Laelia_(orchidée)/Laelia_(orchidée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laelia_(orchid%C3%A9e)</t>
+          <t>Laelia_(orchidée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laelia est un genre d'orchidées épiphytes ou lithophytes du Mexique, d'Amérique centrale et d'Amérique du Sud comptant peut-être une centaine d'espèces.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laelia_(orchid%C3%A9e)</t>
+          <t>Laelia_(orchidée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Sous-sections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Laelia se divise en 7 sous-sections[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Laelia se divise en 7 sous-sections :
 Cattleyodes - ressemblant à Cattleya avec huit étamines comme Laelia purpurata.
 Hadrolaelia - aux labelle denté et avec des pseudobulbes en plusieurs parties comme Laelia pumila.
 Laelia - au pseudobulbe entier comme Laelia speciosa.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laelia_(orchid%C3%A9e)</t>
+          <t>Laelia_(orchidée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexique, Amérique centrale, Amérique du Sud.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laelia_(orchid%C3%A9e)</t>
+          <t>Laelia_(orchidée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Laelia albida Bateman ex Lindl.
@@ -711,7 +729,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laelia_(orchid%C3%A9e)</t>
+          <t>Laelia_(orchidée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -729,7 +747,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Laelia furfuracea, Mexique (Oxaxca).
